--- a/biology/Médecine/Ligament_costo-transversaire_supérieur/Ligament_costo-transversaire_supérieur.xlsx
+++ b/biology/Médecine/Ligament_costo-transversaire_supérieur/Ligament_costo-transversaire_supérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_costo-transversaire_sup%C3%A9rieur</t>
+          <t>Ligament_costo-transversaire_supérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament costo-transversaire supérieur (ou ligament cervico-transversaire supérieur ou ligament cervico-transversaire intercostal) est un ligament des articulations costotransversaires.
 Les ligaments costo-transversaires supérieurs occupent les extrémités postérieures des espaces intercostaux. Ils sont constitués de trois faisceaux :
 un faisceau antérieur ou ligament suspenseur de la côte oblique a un trajet en haut et latéral du bord supérieur du col des côtes et le bord inférieur du processus transverse de la vertèbre du dessus.
 un faisceau antéro-médian a un trajet en haut et en dedans entre la tête costale et le haut du processus transverse de la vertèbre du dessus.
 un faisceau latéral a un trajet en haut et en dedans entre la tubérosité costale et le haut du processus transverse de la vertèbre du dessus.
-Ce ligament peut être absent pour la première côte[1].
+Ce ligament peut être absent pour la première côte.
 </t>
         </is>
       </c>
